--- a/Datasets/Mat_div_Provincias_2020.xlsx
+++ b/Datasets/Mat_div_Provincias_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66152359-87C5-48FE-BF8B-581DEA954879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41332069-B86E-461B-A7B7-49D426B5C37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
     <t>Albacete</t>
   </si>
   <si>
-    <t>Alicante/Alacant</t>
-  </si>
-  <si>
     <t>Almería</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t>Badajoz</t>
   </si>
   <si>
-    <t>Balears, Illes</t>
-  </si>
-  <si>
     <t>Barcelona</t>
   </si>
   <si>
@@ -66,18 +60,12 @@
     <t>Cantabria</t>
   </si>
   <si>
-    <t>Castellón/Castelló</t>
-  </si>
-  <si>
     <t>Ciudad Real</t>
   </si>
   <si>
     <t>Córdoba</t>
   </si>
   <si>
-    <t>Coruña, A</t>
-  </si>
-  <si>
     <t>Cuenca</t>
   </si>
   <si>
@@ -129,15 +117,9 @@
     <t>Palencia</t>
   </si>
   <si>
-    <t>Palmas, Las</t>
-  </si>
-  <si>
     <t>Pontevedra</t>
   </si>
   <si>
-    <t>Rioja, La</t>
-  </si>
-  <si>
     <t>Salamanca</t>
   </si>
   <si>
@@ -162,9 +144,6 @@
     <t>Toledo</t>
   </si>
   <si>
-    <t>Valencia/Valéncia</t>
-  </si>
-  <si>
     <t>Valladolid</t>
   </si>
   <si>
@@ -247,13 +226,34 @@
   </si>
   <si>
     <t>https://www.ine.es/dyngs/INEbase/operacion.htm?c=Estadistica_C&amp;cid=1254736176798&amp;menu=resultados&amp;secc=1254736194764&amp;idp=1254735573206</t>
+  </si>
+  <si>
+    <t>Castelló/Castellón</t>
+  </si>
+  <si>
+    <t>Illes Balears</t>
+  </si>
+  <si>
+    <t>A Coruña</t>
+  </si>
+  <si>
+    <t>La Rioja</t>
+  </si>
+  <si>
+    <t>Alacant/Alicante</t>
+  </si>
+  <si>
+    <t>València/Valencia</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +298,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -399,7 +405,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -450,6 +456,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -790,31 +797,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -829,9 +838,9 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="B3">
         <v>3986</v>
@@ -844,9 +853,9 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>1181</v>
@@ -859,9 +868,9 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>537</v>
@@ -873,10 +882,11 @@
         <v>329758</v>
       </c>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>1849</v>
@@ -889,9 +899,9 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>236</v>
@@ -904,9 +914,9 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>1021</v>
@@ -919,9 +929,9 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="B9">
         <v>2960</v>
@@ -934,9 +944,9 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>11396</v>
@@ -949,9 +959,9 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>1962</v>
@@ -964,9 +974,9 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>524</v>
@@ -979,9 +989,9 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>561</v>
@@ -994,9 +1004,9 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>2472</v>
@@ -1009,9 +1019,9 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>1146</v>
@@ -1024,9 +1034,9 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="B16">
         <v>1154</v>
@@ -1041,7 +1051,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>665</v>
@@ -1056,7 +1066,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>1224</v>
@@ -1071,7 +1081,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="B19">
         <v>2441</v>
@@ -1086,7 +1096,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B20">
         <v>246</v>
@@ -1101,7 +1111,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B21">
         <v>1366</v>
@@ -1116,7 +1126,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B22">
         <v>1644</v>
@@ -1131,7 +1141,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B23">
         <v>1503</v>
@@ -1146,7 +1156,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B24">
         <v>536</v>
@@ -1161,7 +1171,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B25">
         <v>1024</v>
@@ -1176,7 +1186,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B26">
         <v>359</v>
@@ -1191,7 +1201,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B27">
         <v>745</v>
@@ -1206,7 +1216,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B28">
         <v>703</v>
@@ -1221,7 +1231,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B29">
         <v>850</v>
@@ -1236,7 +1246,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B30">
         <v>641</v>
@@ -1251,7 +1261,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B31">
         <v>12965</v>
@@ -1266,7 +1276,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B32">
         <v>3212</v>
@@ -1281,7 +1291,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B33">
         <v>2689</v>
@@ -1296,7 +1306,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B34">
         <v>1309</v>
@@ -1311,7 +1321,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B35">
         <v>505</v>
@@ -1326,7 +1336,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B36">
         <v>196</v>
@@ -1341,7 +1351,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>2536</v>
@@ -1356,7 +1366,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B38">
         <v>2030</v>
@@ -1371,7 +1381,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="B39">
         <v>623</v>
@@ -1386,7 +1396,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B40">
         <v>373</v>
@@ -1401,7 +1411,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B41">
         <v>2333</v>
@@ -1416,7 +1426,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B42">
         <v>231</v>
@@ -1431,7 +1441,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B43">
         <v>3814</v>
@@ -1446,7 +1456,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B44">
         <v>149</v>
@@ -1461,7 +1471,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B45">
         <v>1772</v>
@@ -1476,7 +1486,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B46">
         <v>260</v>
@@ -1491,7 +1501,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B47">
         <v>1212</v>
@@ -1506,7 +1516,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B48">
         <v>5531</v>
@@ -1521,7 +1531,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B49">
         <v>769</v>
@@ -1536,7 +1546,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B50">
         <v>186</v>
@@ -1551,7 +1561,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B51">
         <v>1666</v>
@@ -1566,7 +1576,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B52">
         <v>257</v>
@@ -1581,7 +1591,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B53">
         <v>158</v>
@@ -1615,33 +1625,33 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C2" s="8">
         <v>2020</v>
@@ -1653,64 +1663,64 @@
     </row>
     <row r="3" spans="1:7" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C3" s="12">
         <v>2020</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C4" s="12">
         <v>2020</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:7" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C5" s="17">
         <v>44197</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G5" s="16"/>
     </row>
